--- a/Planilhas/equipes_projeto.xlsx
+++ b/Planilhas/equipes_projeto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>Prazo (0-100)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Risco do Projeto</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -475,9 +470,6 @@
       <c r="D2" t="n">
         <v>69</v>
       </c>
-      <c r="E2" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,9 +486,6 @@
       <c r="D3" t="n">
         <v>71</v>
       </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -513,9 +502,6 @@
       <c r="D4" t="n">
         <v>26</v>
       </c>
-      <c r="E4" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -532,9 +518,6 @@
       <c r="D5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -551,9 +534,6 @@
       <c r="D6" t="n">
         <v>61</v>
       </c>
-      <c r="E6" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -570,9 +550,6 @@
       <c r="D7" t="n">
         <v>36</v>
       </c>
-      <c r="E7" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -589,9 +566,6 @@
       <c r="D8" t="n">
         <v>96</v>
       </c>
-      <c r="E8" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -608,9 +582,6 @@
       <c r="D9" t="n">
         <v>50</v>
       </c>
-      <c r="E9" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -627,9 +598,6 @@
       <c r="D10" t="n">
         <v>43</v>
       </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -646,9 +614,6 @@
       <c r="D11" t="n">
         <v>23</v>
       </c>
-      <c r="E11" t="n">
-        <v>61</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -665,9 +630,6 @@
       <c r="D12" t="n">
         <v>78</v>
       </c>
-      <c r="E12" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -684,9 +646,6 @@
       <c r="D13" t="n">
         <v>58</v>
       </c>
-      <c r="E13" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -703,9 +662,6 @@
       <c r="D14" t="n">
         <v>31</v>
       </c>
-      <c r="E14" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -722,9 +678,6 @@
       <c r="D15" t="n">
         <v>95</v>
       </c>
-      <c r="E15" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -741,9 +694,6 @@
       <c r="D16" t="n">
         <v>87</v>
       </c>
-      <c r="E16" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -760,9 +710,6 @@
       <c r="D17" t="n">
         <v>51</v>
       </c>
-      <c r="E17" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -779,9 +726,6 @@
       <c r="D18" t="n">
         <v>61</v>
       </c>
-      <c r="E18" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -798,9 +742,6 @@
       <c r="D19" t="n">
         <v>57</v>
       </c>
-      <c r="E19" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -817,9 +758,6 @@
       <c r="D20" t="n">
         <v>51</v>
       </c>
-      <c r="E20" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -836,9 +774,6 @@
       <c r="D21" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -855,9 +790,6 @@
       <c r="D22" t="n">
         <v>38</v>
       </c>
-      <c r="E22" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -874,9 +806,6 @@
       <c r="D23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -893,9 +822,6 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -912,9 +838,6 @@
       <c r="D25" t="n">
         <v>100</v>
       </c>
-      <c r="E25" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -931,9 +854,6 @@
       <c r="D26" t="n">
         <v>55</v>
       </c>
-      <c r="E26" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -950,9 +870,6 @@
       <c r="D27" t="n">
         <v>80</v>
       </c>
-      <c r="E27" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -969,9 +886,6 @@
       <c r="D28" t="n">
         <v>58</v>
       </c>
-      <c r="E28" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -988,9 +902,6 @@
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1007,9 +918,6 @@
       <c r="D30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1026,9 +934,6 @@
       <c r="D31" t="n">
         <v>91</v>
       </c>
-      <c r="E31" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1045,9 +950,6 @@
       <c r="D32" t="n">
         <v>53</v>
       </c>
-      <c r="E32" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1064,9 +966,6 @@
       <c r="D33" t="n">
         <v>86</v>
       </c>
-      <c r="E33" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1083,9 +982,6 @@
       <c r="D34" t="n">
         <v>100</v>
       </c>
-      <c r="E34" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1102,9 +998,6 @@
       <c r="D35" t="n">
         <v>95</v>
       </c>
-      <c r="E35" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1121,9 +1014,6 @@
       <c r="D36" t="n">
         <v>96</v>
       </c>
-      <c r="E36" t="n">
-        <v>72</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1140,9 +1030,6 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1159,9 +1046,6 @@
       <c r="D38" t="n">
         <v>18</v>
       </c>
-      <c r="E38" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1178,9 +1062,6 @@
       <c r="D39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1197,9 +1078,6 @@
       <c r="D40" t="n">
         <v>52</v>
       </c>
-      <c r="E40" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1216,9 +1094,6 @@
       <c r="D41" t="n">
         <v>43</v>
       </c>
-      <c r="E41" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1235,9 +1110,6 @@
       <c r="D42" t="n">
         <v>89</v>
       </c>
-      <c r="E42" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1254,9 +1126,6 @@
       <c r="D43" t="n">
         <v>31</v>
       </c>
-      <c r="E43" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1273,9 +1142,6 @@
       <c r="D44" t="n">
         <v>69</v>
       </c>
-      <c r="E44" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1292,9 +1158,6 @@
       <c r="D45" t="n">
         <v>31</v>
       </c>
-      <c r="E45" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1311,9 +1174,6 @@
       <c r="D46" t="n">
         <v>67</v>
       </c>
-      <c r="E46" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1330,9 +1190,6 @@
       <c r="D47" t="n">
         <v>54</v>
       </c>
-      <c r="E47" t="n">
-        <v>66</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1349,9 +1206,6 @@
       <c r="D48" t="n">
         <v>74</v>
       </c>
-      <c r="E48" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1368,9 +1222,6 @@
       <c r="D49" t="n">
         <v>55</v>
       </c>
-      <c r="E49" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1387,9 +1238,6 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1406,9 +1254,6 @@
       <c r="D51" t="n">
         <v>37</v>
       </c>
-      <c r="E51" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1425,9 +1270,6 @@
       <c r="D52" t="n">
         <v>23</v>
       </c>
-      <c r="E52" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1444,9 +1286,6 @@
       <c r="D53" t="n">
         <v>68</v>
       </c>
-      <c r="E53" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1463,9 +1302,6 @@
       <c r="D54" t="n">
         <v>97</v>
       </c>
-      <c r="E54" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1482,9 +1318,6 @@
       <c r="D55" t="n">
         <v>69</v>
       </c>
-      <c r="E55" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1501,9 +1334,6 @@
       <c r="D56" t="n">
         <v>85</v>
       </c>
-      <c r="E56" t="n">
-        <v>74</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1520,9 +1350,6 @@
       <c r="D57" t="n">
         <v>10</v>
       </c>
-      <c r="E57" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1539,9 +1366,6 @@
       <c r="D58" t="n">
         <v>15</v>
       </c>
-      <c r="E58" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1558,9 +1382,6 @@
       <c r="D59" t="n">
         <v>96</v>
       </c>
-      <c r="E59" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1577,9 +1398,6 @@
       <c r="D60" t="n">
         <v>72</v>
       </c>
-      <c r="E60" t="n">
-        <v>66</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1596,9 +1414,6 @@
       <c r="D61" t="n">
         <v>58</v>
       </c>
-      <c r="E61" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1615,9 +1430,6 @@
       <c r="D62" t="n">
         <v>69</v>
       </c>
-      <c r="E62" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1634,9 +1446,6 @@
       <c r="D63" t="n">
         <v>79</v>
       </c>
-      <c r="E63" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1653,9 +1462,6 @@
       <c r="D64" t="n">
         <v>92</v>
       </c>
-      <c r="E64" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1672,9 +1478,6 @@
       <c r="D65" t="n">
         <v>2</v>
       </c>
-      <c r="E65" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1691,9 +1494,6 @@
       <c r="D66" t="n">
         <v>19</v>
       </c>
-      <c r="E66" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1710,9 +1510,6 @@
       <c r="D67" t="n">
         <v>58</v>
       </c>
-      <c r="E67" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1729,9 +1526,6 @@
       <c r="D68" t="n">
         <v>35</v>
       </c>
-      <c r="E68" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1748,9 +1542,6 @@
       <c r="D69" t="n">
         <v>18</v>
       </c>
-      <c r="E69" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1767,9 +1558,6 @@
       <c r="D70" t="n">
         <v>89</v>
       </c>
-      <c r="E70" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1786,9 +1574,6 @@
       <c r="D71" t="n">
         <v>66</v>
       </c>
-      <c r="E71" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1805,9 +1590,6 @@
       <c r="D72" t="n">
         <v>18</v>
       </c>
-      <c r="E72" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1824,9 +1606,6 @@
       <c r="D73" t="n">
         <v>19</v>
       </c>
-      <c r="E73" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1843,9 +1622,6 @@
       <c r="D74" t="n">
         <v>95</v>
       </c>
-      <c r="E74" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1862,9 +1638,6 @@
       <c r="D75" t="n">
         <v>70</v>
       </c>
-      <c r="E75" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1881,9 +1654,6 @@
       <c r="D76" t="n">
         <v>51</v>
       </c>
-      <c r="E76" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1900,9 +1670,6 @@
       <c r="D77" t="n">
         <v>32</v>
       </c>
-      <c r="E77" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1919,9 +1686,6 @@
       <c r="D78" t="n">
         <v>39</v>
       </c>
-      <c r="E78" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1938,9 +1702,6 @@
       <c r="D79" t="n">
         <v>38</v>
       </c>
-      <c r="E79" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1957,9 +1718,6 @@
       <c r="D80" t="n">
         <v>81</v>
       </c>
-      <c r="E80" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1976,9 +1734,6 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1995,9 +1750,6 @@
       <c r="D82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2014,9 +1766,6 @@
       <c r="D83" t="n">
         <v>91</v>
       </c>
-      <c r="E83" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2033,9 +1782,6 @@
       <c r="D84" t="n">
         <v>56</v>
       </c>
-      <c r="E84" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2052,9 +1798,6 @@
       <c r="D85" t="n">
         <v>88</v>
       </c>
-      <c r="E85" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2071,9 +1814,6 @@
       <c r="D86" t="n">
         <v>49</v>
       </c>
-      <c r="E86" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2090,9 +1830,6 @@
       <c r="D87" t="n">
         <v>22</v>
       </c>
-      <c r="E87" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2109,9 +1846,6 @@
       <c r="D88" t="n">
         <v>30</v>
       </c>
-      <c r="E88" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2128,9 +1862,6 @@
       <c r="D89" t="n">
         <v>93</v>
       </c>
-      <c r="E89" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2147,9 +1878,6 @@
       <c r="D90" t="n">
         <v>41</v>
       </c>
-      <c r="E90" t="n">
-        <v>54</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2166,9 +1894,6 @@
       <c r="D91" t="n">
         <v>98</v>
       </c>
-      <c r="E91" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2185,9 +1910,6 @@
       <c r="D92" t="n">
         <v>6</v>
       </c>
-      <c r="E92" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2204,9 +1926,6 @@
       <c r="D93" t="n">
         <v>15</v>
       </c>
-      <c r="E93" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2223,9 +1942,6 @@
       <c r="D94" t="n">
         <v>89</v>
       </c>
-      <c r="E94" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2242,9 +1958,6 @@
       <c r="D95" t="n">
         <v>59</v>
       </c>
-      <c r="E95" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2261,9 +1974,6 @@
       <c r="D96" t="n">
         <v>1</v>
       </c>
-      <c r="E96" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2280,9 +1990,6 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
-      <c r="E97" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2299,9 +2006,6 @@
       <c r="D98" t="n">
         <v>47</v>
       </c>
-      <c r="E98" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2318,9 +2022,6 @@
       <c r="D99" t="n">
         <v>11</v>
       </c>
-      <c r="E99" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2337,9 +2038,6 @@
       <c r="D100" t="n">
         <v>68</v>
       </c>
-      <c r="E100" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2355,9 +2053,6 @@
       </c>
       <c r="D101" t="n">
         <v>36</v>
-      </c>
-      <c r="E101" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Planilhas/equipes_projeto.xlsx
+++ b/Planilhas/equipes_projeto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>Prazo (0-100)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Complexidade do projeto (0-100)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Demanda do mercado (0-100)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Dependência da tecnologia de terceiros (0-100)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +485,15 @@
       <c r="D2" t="n">
         <v>69</v>
       </c>
+      <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +510,15 @@
       <c r="D3" t="n">
         <v>71</v>
       </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +535,15 @@
       <c r="D4" t="n">
         <v>26</v>
       </c>
+      <c r="E4" t="n">
+        <v>98</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46</v>
+      </c>
+      <c r="G4" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +560,15 @@
       <c r="D5" t="n">
         <v>8</v>
       </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +585,15 @@
       <c r="D6" t="n">
         <v>61</v>
       </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +610,15 @@
       <c r="D7" t="n">
         <v>36</v>
       </c>
+      <c r="E7" t="n">
+        <v>79</v>
+      </c>
+      <c r="F7" t="n">
+        <v>65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +635,15 @@
       <c r="D8" t="n">
         <v>96</v>
       </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +660,15 @@
       <c r="D9" t="n">
         <v>50</v>
       </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +685,15 @@
       <c r="D10" t="n">
         <v>43</v>
       </c>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +710,15 @@
       <c r="D11" t="n">
         <v>23</v>
       </c>
+      <c r="E11" t="n">
+        <v>53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +735,15 @@
       <c r="D12" t="n">
         <v>78</v>
       </c>
+      <c r="E12" t="n">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +760,15 @@
       <c r="D13" t="n">
         <v>58</v>
       </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +785,15 @@
       <c r="D14" t="n">
         <v>31</v>
       </c>
+      <c r="E14" t="n">
+        <v>74</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +810,15 @@
       <c r="D15" t="n">
         <v>95</v>
       </c>
+      <c r="E15" t="n">
+        <v>71</v>
+      </c>
+      <c r="F15" t="n">
+        <v>47</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +835,15 @@
       <c r="D16" t="n">
         <v>87</v>
       </c>
+      <c r="E16" t="n">
+        <v>35</v>
+      </c>
+      <c r="F16" t="n">
+        <v>38</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +860,15 @@
       <c r="D17" t="n">
         <v>51</v>
       </c>
+      <c r="E17" t="n">
+        <v>37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>92</v>
+      </c>
+      <c r="G17" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +885,15 @@
       <c r="D18" t="n">
         <v>61</v>
       </c>
+      <c r="E18" t="n">
+        <v>83</v>
+      </c>
+      <c r="F18" t="n">
+        <v>41</v>
+      </c>
+      <c r="G18" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +910,15 @@
       <c r="D19" t="n">
         <v>57</v>
       </c>
+      <c r="E19" t="n">
+        <v>98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +935,15 @@
       <c r="D20" t="n">
         <v>51</v>
       </c>
+      <c r="E20" t="n">
+        <v>88</v>
+      </c>
+      <c r="F20" t="n">
+        <v>98</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +960,15 @@
       <c r="D21" t="n">
         <v>11</v>
       </c>
+      <c r="E21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F21" t="n">
+        <v>49</v>
+      </c>
+      <c r="G21" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +985,15 @@
       <c r="D22" t="n">
         <v>38</v>
       </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +1010,15 @@
       <c r="D23" t="n">
         <v>1</v>
       </c>
+      <c r="E23" t="n">
+        <v>92</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +1035,15 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
+      <c r="E24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +1060,15 @@
       <c r="D25" t="n">
         <v>100</v>
       </c>
+      <c r="E25" t="n">
+        <v>81</v>
+      </c>
+      <c r="F25" t="n">
+        <v>59</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1085,15 @@
       <c r="D26" t="n">
         <v>55</v>
       </c>
+      <c r="E26" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1110,15 @@
       <c r="D27" t="n">
         <v>80</v>
       </c>
+      <c r="E27" t="n">
+        <v>53</v>
+      </c>
+      <c r="F27" t="n">
+        <v>56</v>
+      </c>
+      <c r="G27" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1135,15 @@
       <c r="D28" t="n">
         <v>58</v>
       </c>
+      <c r="E28" t="n">
+        <v>34</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1160,15 @@
       <c r="D29" t="n">
         <v>1</v>
       </c>
+      <c r="E29" t="n">
+        <v>79</v>
+      </c>
+      <c r="F29" t="n">
+        <v>44</v>
+      </c>
+      <c r="G29" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1185,15 @@
       <c r="D30" t="n">
         <v>1</v>
       </c>
+      <c r="E30" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" t="n">
+        <v>19</v>
+      </c>
+      <c r="G30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1210,15 @@
       <c r="D31" t="n">
         <v>91</v>
       </c>
+      <c r="E31" t="n">
+        <v>40</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64</v>
+      </c>
+      <c r="G31" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1235,15 @@
       <c r="D32" t="n">
         <v>53</v>
       </c>
+      <c r="E32" t="n">
+        <v>99</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1260,15 @@
       <c r="D33" t="n">
         <v>86</v>
       </c>
+      <c r="E33" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1285,15 @@
       <c r="D34" t="n">
         <v>100</v>
       </c>
+      <c r="E34" t="n">
+        <v>67</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1310,15 @@
       <c r="D35" t="n">
         <v>95</v>
       </c>
+      <c r="E35" t="n">
+        <v>32</v>
+      </c>
+      <c r="F35" t="n">
+        <v>75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1335,15 @@
       <c r="D36" t="n">
         <v>96</v>
       </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>86</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1360,15 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14</v>
+      </c>
+      <c r="G37" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1385,15 @@
       <c r="D38" t="n">
         <v>18</v>
       </c>
+      <c r="E38" t="n">
+        <v>47</v>
+      </c>
+      <c r="F38" t="n">
+        <v>91</v>
+      </c>
+      <c r="G38" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1410,15 @@
       <c r="D39" t="n">
         <v>1</v>
       </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>97</v>
+      </c>
+      <c r="G39" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1435,15 @@
       <c r="D40" t="n">
         <v>52</v>
       </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1094,6 +1460,15 @@
       <c r="D41" t="n">
         <v>43</v>
       </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1110,6 +1485,15 @@
       <c r="D42" t="n">
         <v>89</v>
       </c>
+      <c r="E42" t="n">
+        <v>66</v>
+      </c>
+      <c r="F42" t="n">
+        <v>86</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1126,6 +1510,15 @@
       <c r="D43" t="n">
         <v>31</v>
       </c>
+      <c r="E43" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>62</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1142,6 +1535,15 @@
       <c r="D44" t="n">
         <v>69</v>
       </c>
+      <c r="E44" t="n">
+        <v>32</v>
+      </c>
+      <c r="F44" t="n">
+        <v>85</v>
+      </c>
+      <c r="G44" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1158,6 +1560,15 @@
       <c r="D45" t="n">
         <v>31</v>
       </c>
+      <c r="E45" t="n">
+        <v>47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1174,6 +1585,15 @@
       <c r="D46" t="n">
         <v>67</v>
       </c>
+      <c r="E46" t="n">
+        <v>75</v>
+      </c>
+      <c r="F46" t="n">
+        <v>24</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1190,6 +1610,15 @@
       <c r="D47" t="n">
         <v>54</v>
       </c>
+      <c r="E47" t="n">
+        <v>58</v>
+      </c>
+      <c r="F47" t="n">
+        <v>57</v>
+      </c>
+      <c r="G47" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1206,6 +1635,15 @@
       <c r="D48" t="n">
         <v>74</v>
       </c>
+      <c r="E48" t="n">
+        <v>85</v>
+      </c>
+      <c r="F48" t="n">
+        <v>62</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1222,6 +1660,15 @@
       <c r="D49" t="n">
         <v>55</v>
       </c>
+      <c r="E49" t="n">
+        <v>21</v>
+      </c>
+      <c r="F49" t="n">
+        <v>61</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1238,6 +1685,15 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
+      <c r="E50" t="n">
+        <v>29</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1254,6 +1710,15 @@
       <c r="D51" t="n">
         <v>37</v>
       </c>
+      <c r="E51" t="n">
+        <v>37</v>
+      </c>
+      <c r="F51" t="n">
+        <v>57</v>
+      </c>
+      <c r="G51" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1270,6 +1735,15 @@
       <c r="D52" t="n">
         <v>23</v>
       </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>57</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1286,6 +1760,15 @@
       <c r="D53" t="n">
         <v>68</v>
       </c>
+      <c r="E53" t="n">
+        <v>53</v>
+      </c>
+      <c r="F53" t="n">
+        <v>85</v>
+      </c>
+      <c r="G53" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1302,6 +1785,15 @@
       <c r="D54" t="n">
         <v>97</v>
       </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>48</v>
+      </c>
+      <c r="G54" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1318,6 +1810,15 @@
       <c r="D55" t="n">
         <v>69</v>
       </c>
+      <c r="E55" t="n">
+        <v>26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>51</v>
+      </c>
+      <c r="G55" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1334,6 +1835,15 @@
       <c r="D56" t="n">
         <v>85</v>
       </c>
+      <c r="E56" t="n">
+        <v>26</v>
+      </c>
+      <c r="F56" t="n">
+        <v>41</v>
+      </c>
+      <c r="G56" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1350,6 +1860,15 @@
       <c r="D57" t="n">
         <v>10</v>
       </c>
+      <c r="E57" t="n">
+        <v>97</v>
+      </c>
+      <c r="F57" t="n">
+        <v>69</v>
+      </c>
+      <c r="G57" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1366,6 +1885,15 @@
       <c r="D58" t="n">
         <v>15</v>
       </c>
+      <c r="E58" t="n">
+        <v>20</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1382,6 +1910,15 @@
       <c r="D59" t="n">
         <v>96</v>
       </c>
+      <c r="E59" t="n">
+        <v>29</v>
+      </c>
+      <c r="F59" t="n">
+        <v>53</v>
+      </c>
+      <c r="G59" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1398,6 +1935,15 @@
       <c r="D60" t="n">
         <v>72</v>
       </c>
+      <c r="E60" t="n">
+        <v>96</v>
+      </c>
+      <c r="F60" t="n">
+        <v>59</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1414,6 +1960,15 @@
       <c r="D61" t="n">
         <v>58</v>
       </c>
+      <c r="E61" t="n">
+        <v>27</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100</v>
+      </c>
+      <c r="G61" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1430,6 +1985,15 @@
       <c r="D62" t="n">
         <v>69</v>
       </c>
+      <c r="E62" t="n">
+        <v>63</v>
+      </c>
+      <c r="F62" t="n">
+        <v>96</v>
+      </c>
+      <c r="G62" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1446,6 +2010,15 @@
       <c r="D63" t="n">
         <v>79</v>
       </c>
+      <c r="E63" t="n">
+        <v>96</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1462,6 +2035,15 @@
       <c r="D64" t="n">
         <v>92</v>
       </c>
+      <c r="E64" t="n">
+        <v>68</v>
+      </c>
+      <c r="F64" t="n">
+        <v>52</v>
+      </c>
+      <c r="G64" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1478,6 +2060,15 @@
       <c r="D65" t="n">
         <v>2</v>
       </c>
+      <c r="E65" t="n">
+        <v>60</v>
+      </c>
+      <c r="F65" t="n">
+        <v>59</v>
+      </c>
+      <c r="G65" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1494,6 +2085,15 @@
       <c r="D66" t="n">
         <v>19</v>
       </c>
+      <c r="E66" t="n">
+        <v>47</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1510,6 +2110,15 @@
       <c r="D67" t="n">
         <v>58</v>
       </c>
+      <c r="E67" t="n">
+        <v>18</v>
+      </c>
+      <c r="F67" t="n">
+        <v>67</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1526,6 +2135,15 @@
       <c r="D68" t="n">
         <v>35</v>
       </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1542,6 +2160,15 @@
       <c r="D69" t="n">
         <v>18</v>
       </c>
+      <c r="E69" t="n">
+        <v>34</v>
+      </c>
+      <c r="F69" t="n">
+        <v>95</v>
+      </c>
+      <c r="G69" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1558,6 +2185,15 @@
       <c r="D70" t="n">
         <v>89</v>
       </c>
+      <c r="E70" t="n">
+        <v>63</v>
+      </c>
+      <c r="F70" t="n">
+        <v>93</v>
+      </c>
+      <c r="G70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1574,6 +2210,15 @@
       <c r="D71" t="n">
         <v>66</v>
       </c>
+      <c r="E71" t="n">
+        <v>48</v>
+      </c>
+      <c r="F71" t="n">
+        <v>46</v>
+      </c>
+      <c r="G71" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1590,6 +2235,15 @@
       <c r="D72" t="n">
         <v>18</v>
       </c>
+      <c r="E72" t="n">
+        <v>16</v>
+      </c>
+      <c r="F72" t="n">
+        <v>98</v>
+      </c>
+      <c r="G72" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1606,6 +2260,15 @@
       <c r="D73" t="n">
         <v>19</v>
       </c>
+      <c r="E73" t="n">
+        <v>43</v>
+      </c>
+      <c r="F73" t="n">
+        <v>54</v>
+      </c>
+      <c r="G73" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1622,6 +2285,15 @@
       <c r="D74" t="n">
         <v>95</v>
       </c>
+      <c r="E74" t="n">
+        <v>91</v>
+      </c>
+      <c r="F74" t="n">
+        <v>39</v>
+      </c>
+      <c r="G74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1638,6 +2310,15 @@
       <c r="D75" t="n">
         <v>70</v>
       </c>
+      <c r="E75" t="n">
+        <v>29</v>
+      </c>
+      <c r="F75" t="n">
+        <v>51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1654,6 +2335,15 @@
       <c r="D76" t="n">
         <v>51</v>
       </c>
+      <c r="E76" t="n">
+        <v>92</v>
+      </c>
+      <c r="F76" t="n">
+        <v>15</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1670,6 +2360,15 @@
       <c r="D77" t="n">
         <v>32</v>
       </c>
+      <c r="E77" t="n">
+        <v>45</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12</v>
+      </c>
+      <c r="G77" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1686,6 +2385,15 @@
       <c r="D78" t="n">
         <v>39</v>
       </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>29</v>
+      </c>
+      <c r="G78" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1702,6 +2410,15 @@
       <c r="D79" t="n">
         <v>38</v>
       </c>
+      <c r="E79" t="n">
+        <v>98</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18</v>
+      </c>
+      <c r="G79" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1718,6 +2435,15 @@
       <c r="D80" t="n">
         <v>81</v>
       </c>
+      <c r="E80" t="n">
+        <v>36</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1734,6 +2460,15 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>23</v>
+      </c>
+      <c r="F81" t="n">
+        <v>62</v>
+      </c>
+      <c r="G81" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1750,6 +2485,15 @@
       <c r="D82" t="n">
         <v>10</v>
       </c>
+      <c r="E82" t="n">
+        <v>92</v>
+      </c>
+      <c r="F82" t="n">
+        <v>18</v>
+      </c>
+      <c r="G82" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1766,6 +2510,15 @@
       <c r="D83" t="n">
         <v>91</v>
       </c>
+      <c r="E83" t="n">
+        <v>45</v>
+      </c>
+      <c r="F83" t="n">
+        <v>91</v>
+      </c>
+      <c r="G83" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1782,6 +2535,15 @@
       <c r="D84" t="n">
         <v>56</v>
       </c>
+      <c r="E84" t="n">
+        <v>52</v>
+      </c>
+      <c r="F84" t="n">
+        <v>57</v>
+      </c>
+      <c r="G84" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1798,6 +2560,15 @@
       <c r="D85" t="n">
         <v>88</v>
       </c>
+      <c r="E85" t="n">
+        <v>94</v>
+      </c>
+      <c r="F85" t="n">
+        <v>54</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1814,6 +2585,15 @@
       <c r="D86" t="n">
         <v>49</v>
       </c>
+      <c r="E86" t="n">
+        <v>98</v>
+      </c>
+      <c r="F86" t="n">
+        <v>89</v>
+      </c>
+      <c r="G86" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1830,6 +2610,15 @@
       <c r="D87" t="n">
         <v>22</v>
       </c>
+      <c r="E87" t="n">
+        <v>59</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100</v>
+      </c>
+      <c r="G87" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1846,6 +2635,15 @@
       <c r="D88" t="n">
         <v>30</v>
       </c>
+      <c r="E88" t="n">
+        <v>96</v>
+      </c>
+      <c r="F88" t="n">
+        <v>89</v>
+      </c>
+      <c r="G88" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1862,6 +2660,15 @@
       <c r="D89" t="n">
         <v>93</v>
       </c>
+      <c r="E89" t="n">
+        <v>62</v>
+      </c>
+      <c r="F89" t="n">
+        <v>61</v>
+      </c>
+      <c r="G89" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1878,6 +2685,15 @@
       <c r="D90" t="n">
         <v>41</v>
       </c>
+      <c r="E90" t="n">
+        <v>84</v>
+      </c>
+      <c r="F90" t="n">
+        <v>22</v>
+      </c>
+      <c r="G90" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1894,6 +2710,15 @@
       <c r="D91" t="n">
         <v>98</v>
       </c>
+      <c r="E91" t="n">
+        <v>31</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1910,6 +2735,15 @@
       <c r="D92" t="n">
         <v>6</v>
       </c>
+      <c r="E92" t="n">
+        <v>86</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11</v>
+      </c>
+      <c r="G92" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1926,6 +2760,15 @@
       <c r="D93" t="n">
         <v>15</v>
       </c>
+      <c r="E93" t="n">
+        <v>32</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1942,6 +2785,15 @@
       <c r="D94" t="n">
         <v>89</v>
       </c>
+      <c r="E94" t="n">
+        <v>66</v>
+      </c>
+      <c r="F94" t="n">
+        <v>57</v>
+      </c>
+      <c r="G94" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1958,6 +2810,15 @@
       <c r="D95" t="n">
         <v>59</v>
       </c>
+      <c r="E95" t="n">
+        <v>17</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1974,6 +2835,15 @@
       <c r="D96" t="n">
         <v>1</v>
       </c>
+      <c r="E96" t="n">
+        <v>24</v>
+      </c>
+      <c r="F96" t="n">
+        <v>33</v>
+      </c>
+      <c r="G96" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1990,6 +2860,15 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>94</v>
+      </c>
+      <c r="F97" t="n">
+        <v>95</v>
+      </c>
+      <c r="G97" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2006,6 +2885,15 @@
       <c r="D98" t="n">
         <v>47</v>
       </c>
+      <c r="E98" t="n">
+        <v>53</v>
+      </c>
+      <c r="F98" t="n">
+        <v>47</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2022,6 +2910,15 @@
       <c r="D99" t="n">
         <v>11</v>
       </c>
+      <c r="E99" t="n">
+        <v>57</v>
+      </c>
+      <c r="F99" t="n">
+        <v>88</v>
+      </c>
+      <c r="G99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2038,6 +2935,15 @@
       <c r="D100" t="n">
         <v>68</v>
       </c>
+      <c r="E100" t="n">
+        <v>66</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2053,6 +2959,15 @@
       </c>
       <c r="D101" t="n">
         <v>36</v>
+      </c>
+      <c r="E101" t="n">
+        <v>45</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15</v>
+      </c>
+      <c r="G101" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Planilhas/equipes_projeto.xlsx
+++ b/Planilhas/equipes_projeto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,26 @@
           <t>Dependência da tecnologia de terceiros (0-100)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tamanho da equipe (0-100)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Histórico de sucesso da equipe</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Carga horária da equipe (0-100)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Escopo do projeto (0-100)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +514,18 @@
       <c r="G2" t="n">
         <v>60</v>
       </c>
+      <c r="H2" t="n">
+        <v>72</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,6 +551,18 @@
       <c r="G3" t="n">
         <v>63</v>
       </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,6 +588,18 @@
       <c r="G4" t="n">
         <v>62</v>
       </c>
+      <c r="H4" t="n">
+        <v>63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73</v>
+      </c>
+      <c r="J4" t="n">
+        <v>64</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -569,6 +625,18 @@
       <c r="G5" t="n">
         <v>68</v>
       </c>
+      <c r="H5" t="n">
+        <v>98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +662,18 @@
       <c r="G6" t="n">
         <v>21</v>
       </c>
+      <c r="H6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +699,18 @@
       <c r="G7" t="n">
         <v>92</v>
       </c>
+      <c r="H7" t="n">
+        <v>98</v>
+      </c>
+      <c r="I7" t="n">
+        <v>38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>48</v>
+      </c>
+      <c r="K7" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -644,6 +736,18 @@
       <c r="G8" t="n">
         <v>66</v>
       </c>
+      <c r="H8" t="n">
+        <v>35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -669,6 +773,18 @@
       <c r="G9" t="n">
         <v>75</v>
       </c>
+      <c r="H9" t="n">
+        <v>81</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -694,6 +810,18 @@
       <c r="G10" t="n">
         <v>25</v>
       </c>
+      <c r="H10" t="n">
+        <v>95</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -719,6 +847,18 @@
       <c r="G11" t="n">
         <v>15</v>
       </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>91</v>
+      </c>
+      <c r="J11" t="n">
+        <v>62</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -744,6 +884,18 @@
       <c r="G12" t="n">
         <v>50</v>
       </c>
+      <c r="H12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>57</v>
+      </c>
+      <c r="J12" t="n">
+        <v>88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -769,6 +921,18 @@
       <c r="G13" t="n">
         <v>100</v>
       </c>
+      <c r="H13" t="n">
+        <v>61</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" t="n">
+        <v>85</v>
+      </c>
+      <c r="K13" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -794,6 +958,18 @@
       <c r="G14" t="n">
         <v>85</v>
       </c>
+      <c r="H14" t="n">
+        <v>95</v>
+      </c>
+      <c r="I14" t="n">
+        <v>91</v>
+      </c>
+      <c r="J14" t="n">
+        <v>58</v>
+      </c>
+      <c r="K14" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -819,6 +995,18 @@
       <c r="G15" t="n">
         <v>56</v>
       </c>
+      <c r="H15" t="n">
+        <v>36</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71</v>
+      </c>
+      <c r="J15" t="n">
+        <v>26</v>
+      </c>
+      <c r="K15" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -844,6 +1032,18 @@
       <c r="G16" t="n">
         <v>28</v>
       </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
+        <v>60</v>
+      </c>
+      <c r="J16" t="n">
+        <v>48</v>
+      </c>
+      <c r="K16" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -869,6 +1069,18 @@
       <c r="G17" t="n">
         <v>77</v>
       </c>
+      <c r="H17" t="n">
+        <v>54</v>
+      </c>
+      <c r="I17" t="n">
+        <v>38</v>
+      </c>
+      <c r="J17" t="n">
+        <v>76</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -894,6 +1106,18 @@
       <c r="G18" t="n">
         <v>91</v>
       </c>
+      <c r="H18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -919,6 +1143,18 @@
       <c r="G19" t="n">
         <v>68</v>
       </c>
+      <c r="H19" t="n">
+        <v>22</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>97</v>
+      </c>
+      <c r="K19" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -944,6 +1180,18 @@
       <c r="G20" t="n">
         <v>46</v>
       </c>
+      <c r="H20" t="n">
+        <v>88</v>
+      </c>
+      <c r="I20" t="n">
+        <v>76</v>
+      </c>
+      <c r="J20" t="n">
+        <v>98</v>
+      </c>
+      <c r="K20" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -969,6 +1217,18 @@
       <c r="G21" t="n">
         <v>93</v>
       </c>
+      <c r="H21" t="n">
+        <v>98</v>
+      </c>
+      <c r="I21" t="n">
+        <v>91</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -994,6 +1254,18 @@
       <c r="G22" t="n">
         <v>61</v>
       </c>
+      <c r="H22" t="n">
+        <v>29</v>
+      </c>
+      <c r="I22" t="n">
+        <v>61</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1019,6 +1291,18 @@
       <c r="G23" t="n">
         <v>68</v>
       </c>
+      <c r="H23" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" t="n">
+        <v>62</v>
+      </c>
+      <c r="J23" t="n">
+        <v>54</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1044,6 +1328,18 @@
       <c r="G24" t="n">
         <v>75</v>
       </c>
+      <c r="H24" t="n">
+        <v>61</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1069,6 +1365,18 @@
       <c r="G25" t="n">
         <v>15</v>
       </c>
+      <c r="H25" t="n">
+        <v>83</v>
+      </c>
+      <c r="I25" t="n">
+        <v>55</v>
+      </c>
+      <c r="J25" t="n">
+        <v>91</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1094,6 +1402,18 @@
       <c r="G26" t="n">
         <v>89</v>
       </c>
+      <c r="H26" t="n">
+        <v>88</v>
+      </c>
+      <c r="I26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J26" t="n">
+        <v>80</v>
+      </c>
+      <c r="K26" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1119,6 +1439,18 @@
       <c r="G27" t="n">
         <v>89</v>
       </c>
+      <c r="H27" t="n">
+        <v>85</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37</v>
+      </c>
+      <c r="J27" t="n">
+        <v>68</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1144,6 +1476,18 @@
       <c r="G28" t="n">
         <v>47</v>
       </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>94</v>
+      </c>
+      <c r="K28" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1169,6 +1513,18 @@
       <c r="G29" t="n">
         <v>84</v>
       </c>
+      <c r="H29" t="n">
+        <v>58</v>
+      </c>
+      <c r="I29" t="n">
+        <v>57</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1194,6 +1550,18 @@
       <c r="G30" t="n">
         <v>38</v>
       </c>
+      <c r="H30" t="n">
+        <v>18</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1219,6 +1587,18 @@
       <c r="G31" t="n">
         <v>99</v>
       </c>
+      <c r="H31" t="n">
+        <v>48</v>
+      </c>
+      <c r="I31" t="n">
+        <v>44</v>
+      </c>
+      <c r="J31" t="n">
+        <v>52</v>
+      </c>
+      <c r="K31" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1244,6 +1624,18 @@
       <c r="G32" t="n">
         <v>32</v>
       </c>
+      <c r="H32" t="n">
+        <v>99</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31</v>
+      </c>
+      <c r="J32" t="n">
+        <v>22</v>
+      </c>
+      <c r="K32" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1269,6 +1661,18 @@
       <c r="G33" t="n">
         <v>93</v>
       </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+      <c r="I33" t="n">
+        <v>44</v>
+      </c>
+      <c r="J33" t="n">
+        <v>100</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1294,6 +1698,18 @@
       <c r="G34" t="n">
         <v>100</v>
       </c>
+      <c r="H34" t="n">
+        <v>60</v>
+      </c>
+      <c r="I34" t="n">
+        <v>60</v>
+      </c>
+      <c r="J34" t="n">
+        <v>52</v>
+      </c>
+      <c r="K34" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1319,6 +1735,18 @@
       <c r="G35" t="n">
         <v>22</v>
       </c>
+      <c r="H35" t="n">
+        <v>18</v>
+      </c>
+      <c r="I35" t="n">
+        <v>46</v>
+      </c>
+      <c r="J35" t="n">
+        <v>36</v>
+      </c>
+      <c r="K35" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1344,6 +1772,18 @@
       <c r="G36" t="n">
         <v>9</v>
       </c>
+      <c r="H36" t="n">
+        <v>75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" t="n">
+        <v>73</v>
+      </c>
+      <c r="K36" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1369,6 +1809,18 @@
       <c r="G37" t="n">
         <v>68</v>
       </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>79</v>
+      </c>
+      <c r="J37" t="n">
+        <v>73</v>
+      </c>
+      <c r="K37" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1394,6 +1846,18 @@
       <c r="G38" t="n">
         <v>99</v>
       </c>
+      <c r="H38" t="n">
+        <v>70</v>
+      </c>
+      <c r="I38" t="n">
+        <v>84</v>
+      </c>
+      <c r="J38" t="n">
+        <v>82</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1419,6 +1883,18 @@
       <c r="G39" t="n">
         <v>33</v>
       </c>
+      <c r="H39" t="n">
+        <v>27</v>
+      </c>
+      <c r="I39" t="n">
+        <v>74</v>
+      </c>
+      <c r="J39" t="n">
+        <v>16</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1444,6 +1920,18 @@
       <c r="G40" t="n">
         <v>51</v>
       </c>
+      <c r="H40" t="n">
+        <v>77</v>
+      </c>
+      <c r="I40" t="n">
+        <v>100</v>
+      </c>
+      <c r="J40" t="n">
+        <v>84</v>
+      </c>
+      <c r="K40" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1469,6 +1957,18 @@
       <c r="G41" t="n">
         <v>94</v>
       </c>
+      <c r="H41" t="n">
+        <v>94</v>
+      </c>
+      <c r="I41" t="n">
+        <v>35</v>
+      </c>
+      <c r="J41" t="n">
+        <v>77</v>
+      </c>
+      <c r="K41" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1494,6 +1994,18 @@
       <c r="G42" t="n">
         <v>9</v>
       </c>
+      <c r="H42" t="n">
+        <v>51</v>
+      </c>
+      <c r="I42" t="n">
+        <v>98</v>
+      </c>
+      <c r="J42" t="n">
+        <v>72</v>
+      </c>
+      <c r="K42" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1519,6 +2031,18 @@
       <c r="G43" t="n">
         <v>18</v>
       </c>
+      <c r="H43" t="n">
+        <v>82</v>
+      </c>
+      <c r="I43" t="n">
+        <v>18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1544,6 +2068,18 @@
       <c r="G44" t="n">
         <v>57</v>
       </c>
+      <c r="H44" t="n">
+        <v>15</v>
+      </c>
+      <c r="I44" t="n">
+        <v>19</v>
+      </c>
+      <c r="J44" t="n">
+        <v>50</v>
+      </c>
+      <c r="K44" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1569,6 +2105,18 @@
       <c r="G45" t="n">
         <v>95</v>
       </c>
+      <c r="H45" t="n">
+        <v>68</v>
+      </c>
+      <c r="I45" t="n">
+        <v>56</v>
+      </c>
+      <c r="J45" t="n">
+        <v>44</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1594,6 +2142,18 @@
       <c r="G46" t="n">
         <v>0</v>
       </c>
+      <c r="H46" t="n">
+        <v>98</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>76</v>
+      </c>
+      <c r="K46" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1619,6 +2179,18 @@
       <c r="G47" t="n">
         <v>68</v>
       </c>
+      <c r="H47" t="n">
+        <v>11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>46</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1644,6 +2216,18 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
+      <c r="H48" t="n">
+        <v>24</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>61</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1669,6 +2253,18 @@
       <c r="G49" t="n">
         <v>15</v>
       </c>
+      <c r="H49" t="n">
+        <v>51</v>
+      </c>
+      <c r="I49" t="n">
+        <v>13</v>
+      </c>
+      <c r="J49" t="n">
+        <v>64</v>
+      </c>
+      <c r="K49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1694,6 +2290,18 @@
       <c r="G50" t="n">
         <v>23</v>
       </c>
+      <c r="H50" t="n">
+        <v>84</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31</v>
+      </c>
+      <c r="K50" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1719,6 +2327,18 @@
       <c r="G51" t="n">
         <v>79</v>
       </c>
+      <c r="H51" t="n">
+        <v>99</v>
+      </c>
+      <c r="I51" t="n">
+        <v>30</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33</v>
+      </c>
+      <c r="K51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1744,6 +2364,18 @@
       <c r="G52" t="n">
         <v>1</v>
       </c>
+      <c r="H52" t="n">
+        <v>52</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>91</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1769,6 +2401,18 @@
       <c r="G53" t="n">
         <v>91</v>
       </c>
+      <c r="H53" t="n">
+        <v>22</v>
+      </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>94</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1794,6 +2438,18 @@
       <c r="G54" t="n">
         <v>31</v>
       </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>71</v>
+      </c>
+      <c r="K54" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1819,6 +2475,18 @@
       <c r="G55" t="n">
         <v>90</v>
       </c>
+      <c r="H55" t="n">
+        <v>56</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15</v>
+      </c>
+      <c r="J55" t="n">
+        <v>38</v>
+      </c>
+      <c r="K55" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1844,6 +2512,18 @@
       <c r="G56" t="n">
         <v>83</v>
       </c>
+      <c r="H56" t="n">
+        <v>38</v>
+      </c>
+      <c r="I56" t="n">
+        <v>86</v>
+      </c>
+      <c r="J56" t="n">
+        <v>25</v>
+      </c>
+      <c r="K56" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1869,6 +2549,18 @@
       <c r="G57" t="n">
         <v>23</v>
       </c>
+      <c r="H57" t="n">
+        <v>52</v>
+      </c>
+      <c r="I57" t="n">
+        <v>56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>33</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1894,6 +2586,18 @@
       <c r="G58" t="n">
         <v>11</v>
       </c>
+      <c r="H58" t="n">
+        <v>41</v>
+      </c>
+      <c r="I58" t="n">
+        <v>74</v>
+      </c>
+      <c r="J58" t="n">
+        <v>53</v>
+      </c>
+      <c r="K58" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1919,6 +2623,18 @@
       <c r="G59" t="n">
         <v>49</v>
       </c>
+      <c r="H59" t="n">
+        <v>57</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1944,6 +2660,18 @@
       <c r="G60" t="n">
         <v>34</v>
       </c>
+      <c r="H60" t="n">
+        <v>38</v>
+      </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" t="n">
+        <v>49</v>
+      </c>
+      <c r="K60" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1969,6 +2697,18 @@
       <c r="G61" t="n">
         <v>32</v>
       </c>
+      <c r="H61" t="n">
+        <v>13</v>
+      </c>
+      <c r="I61" t="n">
+        <v>95</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11</v>
+      </c>
+      <c r="K61" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1994,6 +2734,18 @@
       <c r="G62" t="n">
         <v>32</v>
       </c>
+      <c r="H62" t="n">
+        <v>94</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15</v>
+      </c>
+      <c r="J62" t="n">
+        <v>64</v>
+      </c>
+      <c r="K62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2019,6 +2771,18 @@
       <c r="G63" t="n">
         <v>60</v>
       </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>71</v>
+      </c>
+      <c r="J63" t="n">
+        <v>53</v>
+      </c>
+      <c r="K63" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2044,6 +2808,18 @@
       <c r="G64" t="n">
         <v>50</v>
       </c>
+      <c r="H64" t="n">
+        <v>34</v>
+      </c>
+      <c r="I64" t="n">
+        <v>75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2069,6 +2845,18 @@
       <c r="G65" t="n">
         <v>42</v>
       </c>
+      <c r="H65" t="n">
+        <v>86</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23</v>
+      </c>
+      <c r="J65" t="n">
+        <v>93</v>
+      </c>
+      <c r="K65" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2094,6 +2882,18 @@
       <c r="G66" t="n">
         <v>100</v>
       </c>
+      <c r="H66" t="n">
+        <v>92</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>93</v>
+      </c>
+      <c r="K66" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2119,6 +2919,18 @@
       <c r="G67" t="n">
         <v>11</v>
       </c>
+      <c r="H67" t="n">
+        <v>74</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>56</v>
+      </c>
+      <c r="K67" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2144,6 +2956,18 @@
       <c r="G68" t="n">
         <v>66</v>
       </c>
+      <c r="H68" t="n">
+        <v>17</v>
+      </c>
+      <c r="I68" t="n">
+        <v>91</v>
+      </c>
+      <c r="J68" t="n">
+        <v>16</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2169,6 +2993,18 @@
       <c r="G69" t="n">
         <v>64</v>
       </c>
+      <c r="H69" t="n">
+        <v>75</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35</v>
+      </c>
+      <c r="J69" t="n">
+        <v>46</v>
+      </c>
+      <c r="K69" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2194,6 +3030,18 @@
       <c r="G70" t="n">
         <v>32</v>
       </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>89</v>
+      </c>
+      <c r="J70" t="n">
+        <v>22</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2219,6 +3067,18 @@
       <c r="G71" t="n">
         <v>39</v>
       </c>
+      <c r="H71" t="n">
+        <v>73</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>78</v>
+      </c>
+      <c r="K71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2244,6 +3104,18 @@
       <c r="G72" t="n">
         <v>73</v>
       </c>
+      <c r="H72" t="n">
+        <v>57</v>
+      </c>
+      <c r="I72" t="n">
+        <v>57</v>
+      </c>
+      <c r="J72" t="n">
+        <v>100</v>
+      </c>
+      <c r="K72" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2269,6 +3141,18 @@
       <c r="G73" t="n">
         <v>42</v>
       </c>
+      <c r="H73" t="n">
+        <v>16</v>
+      </c>
+      <c r="I73" t="n">
+        <v>59</v>
+      </c>
+      <c r="J73" t="n">
+        <v>84</v>
+      </c>
+      <c r="K73" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2294,6 +3178,18 @@
       <c r="G74" t="n">
         <v>43</v>
       </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>13</v>
+      </c>
+      <c r="K74" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2319,6 +3215,18 @@
       <c r="G75" t="n">
         <v>28</v>
       </c>
+      <c r="H75" t="n">
+        <v>45</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27</v>
+      </c>
+      <c r="J75" t="n">
+        <v>65</v>
+      </c>
+      <c r="K75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2344,6 +3252,18 @@
       <c r="G76" t="n">
         <v>12</v>
       </c>
+      <c r="H76" t="n">
+        <v>12</v>
+      </c>
+      <c r="I76" t="n">
+        <v>91</v>
+      </c>
+      <c r="J76" t="n">
+        <v>74</v>
+      </c>
+      <c r="K76" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2369,6 +3289,18 @@
       <c r="G77" t="n">
         <v>11</v>
       </c>
+      <c r="H77" t="n">
+        <v>39</v>
+      </c>
+      <c r="I77" t="n">
+        <v>100</v>
+      </c>
+      <c r="J77" t="n">
+        <v>50</v>
+      </c>
+      <c r="K77" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2394,6 +3326,18 @@
       <c r="G78" t="n">
         <v>94</v>
       </c>
+      <c r="H78" t="n">
+        <v>41</v>
+      </c>
+      <c r="I78" t="n">
+        <v>40</v>
+      </c>
+      <c r="J78" t="n">
+        <v>37</v>
+      </c>
+      <c r="K78" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2419,6 +3363,18 @@
       <c r="G79" t="n">
         <v>45</v>
       </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>99</v>
+      </c>
+      <c r="J79" t="n">
+        <v>63</v>
+      </c>
+      <c r="K79" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2444,6 +3400,18 @@
       <c r="G80" t="n">
         <v>1</v>
       </c>
+      <c r="H80" t="n">
+        <v>49</v>
+      </c>
+      <c r="I80" t="n">
+        <v>63</v>
+      </c>
+      <c r="J80" t="n">
+        <v>97</v>
+      </c>
+      <c r="K80" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2469,6 +3437,18 @@
       <c r="G81" t="n">
         <v>34</v>
       </c>
+      <c r="H81" t="n">
+        <v>26</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26</v>
+      </c>
+      <c r="J81" t="n">
+        <v>37</v>
+      </c>
+      <c r="K81" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2494,6 +3474,18 @@
       <c r="G82" t="n">
         <v>86</v>
       </c>
+      <c r="H82" t="n">
+        <v>65</v>
+      </c>
+      <c r="I82" t="n">
+        <v>62</v>
+      </c>
+      <c r="J82" t="n">
+        <v>49</v>
+      </c>
+      <c r="K82" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2519,6 +3511,18 @@
       <c r="G83" t="n">
         <v>80</v>
       </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>16</v>
+      </c>
+      <c r="J83" t="n">
+        <v>97</v>
+      </c>
+      <c r="K83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2544,6 +3548,18 @@
       <c r="G84" t="n">
         <v>89</v>
       </c>
+      <c r="H84" t="n">
+        <v>28</v>
+      </c>
+      <c r="I84" t="n">
+        <v>72</v>
+      </c>
+      <c r="J84" t="n">
+        <v>81</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2569,6 +3585,18 @@
       <c r="G85" t="n">
         <v>7</v>
       </c>
+      <c r="H85" t="n">
+        <v>36</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29</v>
+      </c>
+      <c r="K85" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2594,6 +3622,18 @@
       <c r="G86" t="n">
         <v>92</v>
       </c>
+      <c r="H86" t="n">
+        <v>37</v>
+      </c>
+      <c r="I86" t="n">
+        <v>83</v>
+      </c>
+      <c r="J86" t="n">
+        <v>78</v>
+      </c>
+      <c r="K86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2619,6 +3659,18 @@
       <c r="G87" t="n">
         <v>25</v>
       </c>
+      <c r="H87" t="n">
+        <v>82</v>
+      </c>
+      <c r="I87" t="n">
+        <v>76</v>
+      </c>
+      <c r="J87" t="n">
+        <v>90</v>
+      </c>
+      <c r="K87" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2644,6 +3696,18 @@
       <c r="G88" t="n">
         <v>73</v>
       </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>91</v>
+      </c>
+      <c r="J88" t="n">
+        <v>50</v>
+      </c>
+      <c r="K88" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2669,6 +3733,18 @@
       <c r="G89" t="n">
         <v>89</v>
       </c>
+      <c r="H89" t="n">
+        <v>64</v>
+      </c>
+      <c r="I89" t="n">
+        <v>28</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2694,6 +3770,18 @@
       <c r="G90" t="n">
         <v>33</v>
       </c>
+      <c r="H90" t="n">
+        <v>85</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12</v>
+      </c>
+      <c r="J90" t="n">
+        <v>97</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2719,6 +3807,18 @@
       <c r="G91" t="n">
         <v>6</v>
       </c>
+      <c r="H91" t="n">
+        <v>16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>45</v>
+      </c>
+      <c r="J91" t="n">
+        <v>51</v>
+      </c>
+      <c r="K91" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2744,6 +3844,18 @@
       <c r="G92" t="n">
         <v>67</v>
       </c>
+      <c r="H92" t="n">
+        <v>70</v>
+      </c>
+      <c r="I92" t="n">
+        <v>34</v>
+      </c>
+      <c r="J92" t="n">
+        <v>37</v>
+      </c>
+      <c r="K92" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2769,6 +3881,18 @@
       <c r="G93" t="n">
         <v>57</v>
       </c>
+      <c r="H93" t="n">
+        <v>88</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>96</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2794,6 +3918,18 @@
       <c r="G94" t="n">
         <v>74</v>
       </c>
+      <c r="H94" t="n">
+        <v>44</v>
+      </c>
+      <c r="I94" t="n">
+        <v>81</v>
+      </c>
+      <c r="J94" t="n">
+        <v>87</v>
+      </c>
+      <c r="K94" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2819,6 +3955,18 @@
       <c r="G95" t="n">
         <v>28</v>
       </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>68</v>
+      </c>
+      <c r="J95" t="n">
+        <v>78</v>
+      </c>
+      <c r="K95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2844,6 +3992,18 @@
       <c r="G96" t="n">
         <v>35</v>
       </c>
+      <c r="H96" t="n">
+        <v>35</v>
+      </c>
+      <c r="I96" t="n">
+        <v>46</v>
+      </c>
+      <c r="J96" t="n">
+        <v>29</v>
+      </c>
+      <c r="K96" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2869,6 +4029,18 @@
       <c r="G97" t="n">
         <v>88</v>
       </c>
+      <c r="H97" t="n">
+        <v>69</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24</v>
+      </c>
+      <c r="J97" t="n">
+        <v>50</v>
+      </c>
+      <c r="K97" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2894,6 +4066,18 @@
       <c r="G98" t="n">
         <v>20</v>
       </c>
+      <c r="H98" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>80</v>
+      </c>
+      <c r="K98" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2919,6 +4103,18 @@
       <c r="G99" t="n">
         <v>35</v>
       </c>
+      <c r="H99" t="n">
+        <v>18</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2944,6 +4140,18 @@
       <c r="G100" t="n">
         <v>9</v>
       </c>
+      <c r="H100" t="n">
+        <v>60</v>
+      </c>
+      <c r="I100" t="n">
+        <v>55</v>
+      </c>
+      <c r="J100" t="n">
+        <v>28</v>
+      </c>
+      <c r="K100" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2968,6 +4176,18 @@
       </c>
       <c r="G101" t="n">
         <v>100</v>
+      </c>
+      <c r="H101" t="n">
+        <v>53</v>
+      </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Planilhas/equipes_projeto.xlsx
+++ b/Planilhas/equipes_projeto.xlsx
@@ -497,34 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
         <v>23</v>
       </c>
-      <c r="D2" t="n">
-        <v>69</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60</v>
-      </c>
       <c r="H2" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H3" t="n">
         <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
+        <v>58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J4" t="n">
         <v>98</v>
       </c>
-      <c r="F4" t="n">
-        <v>46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>62</v>
-      </c>
-      <c r="H4" t="n">
-        <v>63</v>
-      </c>
-      <c r="I4" t="n">
-        <v>73</v>
-      </c>
-      <c r="J4" t="n">
-        <v>64</v>
-      </c>
       <c r="K4" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J5" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -645,34 +645,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J6" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K7" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -719,34 +719,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>96</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="n">
-        <v>66</v>
-      </c>
-      <c r="H8" t="n">
-        <v>35</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -756,34 +756,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J9" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K9" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -793,34 +793,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H10" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J10" t="n">
         <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -830,34 +830,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I11" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -867,34 +867,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K12" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -904,34 +904,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H13" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="J13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K13" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -941,34 +941,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K14" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G15" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H15" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I15" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J15" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="K15" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1015,34 +1015,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J16" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1052,34 +1052,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -1089,34 +1089,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G18" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J18" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -1126,34 +1126,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>72</v>
+      </c>
+      <c r="I19" t="n">
+        <v>95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>36</v>
+      </c>
+      <c r="K19" t="n">
         <v>68</v>
-      </c>
-      <c r="H19" t="n">
-        <v>22</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>97</v>
-      </c>
-      <c r="K19" t="n">
-        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -1163,34 +1163,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
         <v>88</v>
       </c>
-      <c r="F20" t="n">
-        <v>98</v>
-      </c>
       <c r="G20" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I20" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1200,34 +1200,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K21" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1237,34 +1237,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H22" t="n">
+        <v>69</v>
+      </c>
+      <c r="I22" t="n">
         <v>29</v>
       </c>
-      <c r="I22" t="n">
-        <v>61</v>
-      </c>
       <c r="J22" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1274,34 +1274,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G23" t="n">
+        <v>82</v>
+      </c>
+      <c r="H23" t="n">
+        <v>84</v>
+      </c>
+      <c r="I23" t="n">
         <v>68</v>
       </c>
-      <c r="H23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I23" t="n">
-        <v>62</v>
-      </c>
       <c r="J23" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1311,34 +1311,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>27</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="n">
         <v>75</v>
       </c>
-      <c r="H24" t="n">
-        <v>61</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F25" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I25" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J25" t="n">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -1385,34 +1385,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G26" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H26" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K26" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -1422,34 +1422,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" t="n">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G27" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1459,34 +1459,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G28" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J28" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="K28" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1496,34 +1496,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H29" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K29" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -1533,34 +1533,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C30" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>40</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>69</v>
+      </c>
+      <c r="H30" t="n">
+        <v>73</v>
+      </c>
+      <c r="I30" t="n">
+        <v>54</v>
+      </c>
+      <c r="J30" t="n">
         <v>71</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>60</v>
-      </c>
-      <c r="F30" t="n">
-        <v>19</v>
-      </c>
-      <c r="G30" t="n">
-        <v>38</v>
-      </c>
-      <c r="H30" t="n">
-        <v>18</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
       <c r="K30" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -1570,34 +1570,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="H31" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J31" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K31" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1607,34 +1607,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1644,34 +1644,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G33" t="n">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I33" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K33" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -1681,34 +1681,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
+        <v>79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>82</v>
+      </c>
+      <c r="F34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" t="n">
+        <v>23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>71</v>
+      </c>
+      <c r="I34" t="n">
         <v>100</v>
       </c>
-      <c r="E34" t="n">
-        <v>67</v>
-      </c>
-      <c r="F34" t="n">
-        <v>13</v>
-      </c>
-      <c r="G34" t="n">
-        <v>100</v>
-      </c>
-      <c r="H34" t="n">
-        <v>60</v>
-      </c>
-      <c r="I34" t="n">
-        <v>60</v>
-      </c>
       <c r="J34" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K34" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1718,34 +1718,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G35" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H35" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I35" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J35" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K35" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1755,34 +1755,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="F36" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I36" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -1792,34 +1792,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26</v>
+      </c>
+      <c r="F37" t="n">
+        <v>81</v>
+      </c>
+      <c r="G37" t="n">
+        <v>94</v>
+      </c>
+      <c r="H37" t="n">
+        <v>34</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="n">
-        <v>20</v>
-      </c>
-      <c r="F37" t="n">
-        <v>14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>68</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-      <c r="I37" t="n">
-        <v>79</v>
-      </c>
       <c r="J37" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K37" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1829,34 +1829,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G38" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H38" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J38" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1866,34 +1866,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E39" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F39" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H39" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I39" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J39" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -1903,34 +1903,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F40" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G40" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="H40" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K40" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1940,34 +1940,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F41" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H41" t="n">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I41" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J41" t="n">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="K41" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -1977,34 +1977,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I42" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="J42" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K42" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -2014,34 +2014,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
+        <v>44</v>
+      </c>
+      <c r="D43" t="n">
         <v>34</v>
       </c>
-      <c r="D43" t="n">
-        <v>31</v>
-      </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F43" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H43" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I43" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K43" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -2051,34 +2051,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G44" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H44" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I44" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -2088,34 +2088,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E45" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H45" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I45" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2125,34 +2125,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D46" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H46" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I46" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J46" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K46" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -2162,34 +2162,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D47" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E47" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F47" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G47" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I47" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -2199,34 +2199,34 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C48" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F48" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I48" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J48" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -2236,34 +2236,34 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E49" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H49" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J49" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
@@ -2273,34 +2273,34 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E50" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F50" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G50" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H50" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I50" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K50" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
@@ -2310,34 +2310,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D51" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E51" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H51" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="J51" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K51" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -2347,34 +2347,34 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C52" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J52" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K52" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -2384,34 +2384,34 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E53" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F53" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I53" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="J53" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="K53" t="n">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54">
@@ -2421,31 +2421,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D54" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G54" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K54" t="n">
         <v>77</v>
@@ -2458,34 +2458,34 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D55" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E55" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F55" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G55" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -2495,34 +2495,34 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D56" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F56" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G56" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H56" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J56" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K56" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -2532,34 +2532,34 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C57" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
         <v>97</v>
       </c>
       <c r="F57" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G57" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I57" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
@@ -2569,34 +2569,34 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
+        <v>82</v>
+      </c>
+      <c r="F58" t="n">
+        <v>47</v>
+      </c>
+      <c r="G58" t="n">
+        <v>18</v>
+      </c>
+      <c r="H58" t="n">
+        <v>67</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
         <v>20</v>
       </c>
-      <c r="F58" t="n">
-        <v>14</v>
-      </c>
-      <c r="G58" t="n">
-        <v>11</v>
-      </c>
-      <c r="H58" t="n">
-        <v>41</v>
-      </c>
-      <c r="I58" t="n">
-        <v>74</v>
-      </c>
-      <c r="J58" t="n">
-        <v>53</v>
-      </c>
       <c r="K58" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
@@ -2606,34 +2606,34 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
         <v>41</v>
       </c>
-      <c r="D59" t="n">
-        <v>96</v>
-      </c>
-      <c r="E59" t="n">
-        <v>29</v>
-      </c>
-      <c r="F59" t="n">
-        <v>53</v>
-      </c>
       <c r="G59" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H59" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="K59" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
@@ -2643,34 +2643,34 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C60" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D60" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F60" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H60" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I60" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="J60" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K60" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -2680,34 +2680,34 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>89</v>
+      </c>
+      <c r="C61" t="n">
+        <v>52</v>
+      </c>
+      <c r="D61" t="n">
+        <v>89</v>
+      </c>
+      <c r="E61" t="n">
+        <v>61</v>
+      </c>
+      <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" t="n">
-        <v>50</v>
-      </c>
-      <c r="D61" t="n">
-        <v>58</v>
-      </c>
-      <c r="E61" t="n">
-        <v>27</v>
-      </c>
-      <c r="F61" t="n">
-        <v>100</v>
-      </c>
       <c r="G61" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J61" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K61" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2717,34 +2717,34 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D62" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E62" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="G62" t="n">
         <v>32</v>
       </c>
       <c r="H62" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K62" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -2754,34 +2754,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
+        <v>13</v>
+      </c>
+      <c r="D63" t="n">
         <v>95</v>
       </c>
-      <c r="D63" t="n">
-        <v>79</v>
-      </c>
       <c r="E63" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G63" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="I63" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J63" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
@@ -2791,34 +2791,34 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E64" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F64" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G64" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H64" t="n">
+        <v>14</v>
+      </c>
+      <c r="I64" t="n">
+        <v>86</v>
+      </c>
+      <c r="J64" t="n">
+        <v>73</v>
+      </c>
+      <c r="K64" t="n">
         <v>34</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -2828,34 +2828,34 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
+        <v>46</v>
+      </c>
+      <c r="D65" t="n">
+        <v>66</v>
+      </c>
+      <c r="E65" t="n">
+        <v>47</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30</v>
+      </c>
+      <c r="G65" t="n">
+        <v>62</v>
+      </c>
+      <c r="H65" t="n">
+        <v>50</v>
+      </c>
+      <c r="I65" t="n">
         <v>95</v>
       </c>
-      <c r="D65" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>60</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="J65" t="n">
+        <v>30</v>
+      </c>
+      <c r="K65" t="n">
         <v>59</v>
-      </c>
-      <c r="G65" t="n">
-        <v>42</v>
-      </c>
-      <c r="H65" t="n">
-        <v>86</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23</v>
-      </c>
-      <c r="J65" t="n">
-        <v>93</v>
-      </c>
-      <c r="K65" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="66">
@@ -2865,34 +2865,34 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E66" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="G66" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H66" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I66" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K66" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -2902,34 +2902,34 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F67" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H67" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="J67" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K67" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
@@ -2942,31 +2942,31 @@
         <v>46</v>
       </c>
       <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>92</v>
+      </c>
+      <c r="E68" t="n">
+        <v>32</v>
+      </c>
+      <c r="F68" t="n">
+        <v>97</v>
+      </c>
+      <c r="G68" t="n">
         <v>100</v>
       </c>
-      <c r="D68" t="n">
-        <v>35</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>5</v>
-      </c>
-      <c r="G68" t="n">
-        <v>66</v>
-      </c>
       <c r="H68" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I68" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J68" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="K68" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
@@ -2976,34 +2976,34 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E69" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="n">
         <v>95</v>
       </c>
-      <c r="G69" t="n">
-        <v>64</v>
-      </c>
       <c r="H69" t="n">
+        <v>42</v>
+      </c>
+      <c r="I69" t="n">
         <v>75</v>
       </c>
-      <c r="I69" t="n">
-        <v>35</v>
-      </c>
       <c r="J69" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="K69" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
@@ -3013,34 +3013,34 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
         <v>14</v>
       </c>
-      <c r="D70" t="n">
-        <v>89</v>
-      </c>
       <c r="E70" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="G70" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I70" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="J70" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3050,34 +3050,34 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D71" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H71" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -3087,34 +3087,34 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>89</v>
+      </c>
+      <c r="C72" t="n">
+        <v>49</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>87</v>
+      </c>
+      <c r="F72" t="n">
+        <v>19</v>
+      </c>
+      <c r="G72" t="n">
         <v>35</v>
       </c>
-      <c r="C72" t="n">
-        <v>28</v>
-      </c>
-      <c r="D72" t="n">
-        <v>18</v>
-      </c>
-      <c r="E72" t="n">
-        <v>16</v>
-      </c>
-      <c r="F72" t="n">
-        <v>98</v>
-      </c>
-      <c r="G72" t="n">
-        <v>73</v>
-      </c>
       <c r="H72" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I72" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J72" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -3124,34 +3124,34 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G73" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H73" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I73" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K73" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3161,34 +3161,34 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F74" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G74" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I74" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J74" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K74" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75">
@@ -3198,34 +3198,34 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C75" t="n">
+        <v>11</v>
+      </c>
+      <c r="D75" t="n">
+        <v>66</v>
+      </c>
+      <c r="E75" t="n">
+        <v>79</v>
+      </c>
+      <c r="F75" t="n">
+        <v>69</v>
+      </c>
+      <c r="G75" t="n">
+        <v>30</v>
+      </c>
+      <c r="H75" t="n">
+        <v>39</v>
+      </c>
+      <c r="I75" t="n">
+        <v>45</v>
+      </c>
+      <c r="J75" t="n">
         <v>31</v>
       </c>
-      <c r="D75" t="n">
-        <v>70</v>
-      </c>
-      <c r="E75" t="n">
-        <v>29</v>
-      </c>
-      <c r="F75" t="n">
-        <v>51</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28</v>
-      </c>
-      <c r="H75" t="n">
-        <v>45</v>
-      </c>
-      <c r="I75" t="n">
-        <v>27</v>
-      </c>
-      <c r="J75" t="n">
-        <v>65</v>
-      </c>
       <c r="K75" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76">
@@ -3235,34 +3235,34 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C76" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D76" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E76" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H76" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I76" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J76" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K76" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77">
@@ -3272,34 +3272,34 @@
         </is>
       </c>
       <c r="B77" t="n">
+        <v>81</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>68</v>
+      </c>
+      <c r="E77" t="n">
+        <v>82</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23</v>
+      </c>
+      <c r="G77" t="n">
+        <v>69</v>
+      </c>
+      <c r="H77" t="n">
+        <v>17</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29</v>
+      </c>
+      <c r="J77" t="n">
+        <v>79</v>
+      </c>
+      <c r="K77" t="n">
         <v>53</v>
-      </c>
-      <c r="C77" t="n">
-        <v>58</v>
-      </c>
-      <c r="D77" t="n">
-        <v>32</v>
-      </c>
-      <c r="E77" t="n">
-        <v>45</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12</v>
-      </c>
-      <c r="G77" t="n">
-        <v>11</v>
-      </c>
-      <c r="H77" t="n">
-        <v>39</v>
-      </c>
-      <c r="I77" t="n">
-        <v>100</v>
-      </c>
-      <c r="J77" t="n">
-        <v>50</v>
-      </c>
-      <c r="K77" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="78">
@@ -3309,34 +3309,34 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C78" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D78" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F78" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G78" t="n">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="H78" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I78" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J78" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K78" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -3346,34 +3346,34 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E79" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G79" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="I79" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
         <v>63</v>
       </c>
       <c r="K79" t="n">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -3383,34 +3383,34 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" t="n">
+        <v>69</v>
+      </c>
+      <c r="D80" t="n">
+        <v>27</v>
+      </c>
+      <c r="E80" t="n">
+        <v>35</v>
+      </c>
+      <c r="F80" t="n">
         <v>65</v>
       </c>
-      <c r="D80" t="n">
-        <v>81</v>
-      </c>
-      <c r="E80" t="n">
-        <v>36</v>
-      </c>
-      <c r="F80" t="n">
-        <v>16</v>
-      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H80" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I80" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="J80" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -3420,34 +3420,34 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C81" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F81" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G81" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H81" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I81" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="J81" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -3457,34 +3457,34 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" t="n">
+        <v>82</v>
+      </c>
+      <c r="F82" t="n">
+        <v>89</v>
+      </c>
+      <c r="G82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" t="n">
-        <v>92</v>
-      </c>
-      <c r="F82" t="n">
-        <v>18</v>
-      </c>
-      <c r="G82" t="n">
-        <v>86</v>
-      </c>
       <c r="H82" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I82" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J82" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="K82" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
@@ -3494,34 +3494,34 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C83" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E83" t="n">
+        <v>26</v>
+      </c>
+      <c r="F83" t="n">
+        <v>22</v>
+      </c>
+      <c r="G83" t="n">
+        <v>49</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
         <v>45</v>
       </c>
-      <c r="F83" t="n">
-        <v>91</v>
-      </c>
-      <c r="G83" t="n">
-        <v>80</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16</v>
-      </c>
       <c r="J83" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K83" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -3531,34 +3531,34 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E84" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F84" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H84" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I84" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J84" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
@@ -3568,34 +3568,34 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>59</v>
+      </c>
+      <c r="C85" t="n">
         <v>33</v>
       </c>
-      <c r="C85" t="n">
-        <v>5</v>
-      </c>
       <c r="D85" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F85" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="H85" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I85" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="J85" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86">
@@ -3605,34 +3605,34 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>52</v>
+      </c>
+      <c r="C86" t="n">
         <v>73</v>
       </c>
-      <c r="C86" t="n">
-        <v>27</v>
-      </c>
       <c r="D86" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E86" t="n">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F86" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G86" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H86" t="n">
+        <v>39</v>
+      </c>
+      <c r="I86" t="n">
+        <v>40</v>
+      </c>
+      <c r="J86" t="n">
         <v>37</v>
       </c>
-      <c r="I86" t="n">
-        <v>83</v>
-      </c>
-      <c r="J86" t="n">
-        <v>78</v>
-      </c>
       <c r="K86" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87">
@@ -3642,34 +3642,34 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E87" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G87" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H87" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I87" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J87" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K87" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88">
@@ -3679,34 +3679,34 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C88" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E88" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F88" t="n">
         <v>89</v>
       </c>
       <c r="G88" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I88" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="J88" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K88" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
@@ -3716,34 +3716,34 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C89" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D89" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E89" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F89" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="H89" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I89" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J89" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="K89" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
@@ -3753,34 +3753,34 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C90" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E90" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G90" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I90" t="n">
+        <v>78</v>
+      </c>
+      <c r="J90" t="n">
+        <v>89</v>
+      </c>
+      <c r="K90" t="n">
         <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>97</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3790,34 +3790,34 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D91" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E91" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F91" t="n">
+        <v>46</v>
+      </c>
+      <c r="G91" t="n">
+        <v>32</v>
+      </c>
+      <c r="H91" t="n">
         <v>8</v>
       </c>
-      <c r="G91" t="n">
-        <v>6</v>
-      </c>
-      <c r="H91" t="n">
-        <v>16</v>
-      </c>
       <c r="I91" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K91" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
@@ -3827,34 +3827,34 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C92" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E92" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H92" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="J92" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K92" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -3864,34 +3864,34 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C93" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G93" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H93" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J93" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="K93" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
@@ -3901,34 +3901,34 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D94" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E94" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F94" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G94" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H94" t="n">
+        <v>62</v>
+      </c>
+      <c r="I94" t="n">
+        <v>35</v>
+      </c>
+      <c r="J94" t="n">
+        <v>83</v>
+      </c>
+      <c r="K94" t="n">
         <v>44</v>
-      </c>
-      <c r="I94" t="n">
-        <v>81</v>
-      </c>
-      <c r="J94" t="n">
-        <v>87</v>
-      </c>
-      <c r="K94" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="95">
@@ -3938,34 +3938,34 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C95" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D95" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G95" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I95" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J95" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="K95" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -3975,34 +3975,34 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C96" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F96" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="G96" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H96" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I96" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J96" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K96" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
@@ -4012,34 +4012,34 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E97" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F97" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H97" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I97" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="J97" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="K97" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -4049,34 +4049,34 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E98" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F98" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G98" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H98" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I98" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J98" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="K98" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
@@ -4086,34 +4086,34 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C99" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E99" t="n">
+        <v>20</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33</v>
+      </c>
+      <c r="G99" t="n">
+        <v>72</v>
+      </c>
+      <c r="H99" t="n">
+        <v>59</v>
+      </c>
+      <c r="I99" t="n">
+        <v>60</v>
+      </c>
+      <c r="J99" t="n">
+        <v>69</v>
+      </c>
+      <c r="K99" t="n">
         <v>57</v>
-      </c>
-      <c r="F99" t="n">
-        <v>88</v>
-      </c>
-      <c r="G99" t="n">
-        <v>35</v>
-      </c>
-      <c r="H99" t="n">
-        <v>18</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -4123,34 +4123,34 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C100" t="n">
+        <v>52</v>
+      </c>
+      <c r="D100" t="n">
+        <v>44</v>
+      </c>
+      <c r="E100" t="n">
+        <v>16</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>63</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>67</v>
+      </c>
+      <c r="K100" t="n">
         <v>76</v>
-      </c>
-      <c r="D100" t="n">
-        <v>68</v>
-      </c>
-      <c r="E100" t="n">
-        <v>66</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>9</v>
-      </c>
-      <c r="H100" t="n">
-        <v>60</v>
-      </c>
-      <c r="I100" t="n">
-        <v>55</v>
-      </c>
-      <c r="J100" t="n">
-        <v>28</v>
-      </c>
-      <c r="K100" t="n">
-        <v>73</v>
       </c>
     </row>
     <row r="101">
@@ -4160,34 +4160,34 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D101" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E101" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F101" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="G101" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H101" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I101" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K101" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
